--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{DE2D2EEB-1273-45AF-AB4A-C7ED19593648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFDA65E-CE17-417E-8E65-5286C712C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,6 +918,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -926,33 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1405,8 +1405,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1459,48 +1459,48 @@
       <c r="S2" s="30"/>
       <c r="T2" s="29"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="32"/>
+      <c r="W2" s="24"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
       <c r="AE2" s="16"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
       <c r="AN2" s="21"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:67" s="8" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1527,12 +1527,12 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1718,13 +1718,13 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="22">
         <v>45741</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="22">
         <v>45742</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="22">
         <v>45741</v>
       </c>
       <c r="F5" s="19">
@@ -1738,20 +1738,20 @@
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="22">
         <v>45741</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="22">
         <v>45741</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="22">
+        <v>45741</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>1</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2236,17 +2236,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="23"/>
   <conditionalFormatting sqref="B31:BO31">
